--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -64,27 +61,27 @@
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -97,12 +94,12 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -124,81 +124,81 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>increase</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -580,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.65</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.837696335078534</v>
+        <v>0.85</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.675</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8359375</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L9">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="M9">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6274509803921569</v>
+        <v>0.625968992248062</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5925925925925926</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.576271186440678</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5736434108527132</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C13">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5570469798657718</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4642857142857143</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7906976744186046</v>
+        <v>0.7890625</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4266666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0.7887323943661971</v>
@@ -1341,38 +1341,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>54</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>28</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>49</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L17">
-        <v>37</v>
-      </c>
-      <c r="M17">
-        <v>37</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3555555555555556</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2976190476190476</v>
+        <v>0.2386058981233244</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2332439678284182</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C20">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,37 +1541,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1533333333333333</v>
+        <v>0.03754045307443366</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>254</v>
+        <v>2974</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.05108225108225108</v>
+        <v>0.03630077787381158</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>0.09</v>
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6529411764705882</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,37 +1641,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03149350649350649</v>
+        <v>0.02172886159659896</v>
       </c>
       <c r="C23">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="F23">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2983</v>
+        <v>2071</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6474576271186441</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,87 +1691,63 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02644003777148253</v>
+        <v>0.009689922480620155</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E24">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="F24">
-        <v>0.6899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2062</v>
+        <v>3066</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.65</v>
+      </c>
+      <c r="L24">
+        <v>221</v>
+      </c>
+      <c r="M24">
+        <v>221</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>0.6386554621848739</v>
-      </c>
-      <c r="L24">
-        <v>152</v>
-      </c>
-      <c r="M24">
-        <v>153</v>
-      </c>
-      <c r="N24">
-        <v>0.99</v>
-      </c>
-      <c r="O24">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.01159047005795235</v>
-      </c>
-      <c r="C25">
-        <v>36</v>
-      </c>
-      <c r="D25">
-        <v>131</v>
-      </c>
-      <c r="E25">
-        <v>0.73</v>
-      </c>
-      <c r="F25">
-        <v>0.27</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3070</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.6307692307692307</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,47 +1759,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.6170212765957447</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.6078431372549019</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1835,47 +1811,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5777777777777777</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1887,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5393258426966292</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1913,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1939,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.4520547945205479</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1965,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.390625</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1991,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.3461538461538461</v>
+        <v>0.390625</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2017,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.1071428571428571</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2043,59 +2019,59 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>275</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.08433734939759036</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>380</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.03001579778830964</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L37">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3070</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2103,25 +2079,25 @@
         <v>66</v>
       </c>
       <c r="K38">
-        <v>0.03</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>873</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2129,25 +2105,25 @@
         <v>29</v>
       </c>
       <c r="K39">
-        <v>0.01197891710589363</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M39">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="N39">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="O39">
-        <v>0.6899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2062</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2155,25 +2131,25 @@
         <v>28</v>
       </c>
       <c r="K40">
-        <v>0.008970099667774087</v>
+        <v>0.01239866475917978</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="N40">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="O40">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2983</v>
+        <v>2071</v>
       </c>
     </row>
   </sheetData>
